--- a/excel.xlsx
+++ b/excel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -343,14 +343,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
